--- a/pokemon/pokemonitems.xlsx
+++ b/pokemon/pokemonitems.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,63 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>heal-ball</t>
+          <t>poke-ball</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>burn-heal</t>
+          <t>poke-doll</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ice-heal</t>
+          <t>poke-radar</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>paralyze-heal</t>
+          <t>slowpoke-tail</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>full-heal</t>
+          <t>pokeblock-case</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>heal-powder</t>
+          <t>poke-flute</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>health-wing</t>
+          <t>poke-toy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>health-candy</t>
+          <t>pokeblock-kit</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>health-candy-l</t>
+          <t>left-poke-ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pokemon-box</t>
         </is>
       </c>
     </row>
